--- a/academycity/data/avic/datasets/excel/eli/2000.xlsx
+++ b/academycity/data/avic/datasets/excel/eli/2000.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="1" state="visible" r:id="rId2"/>
@@ -1045,6 +1045,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF993300"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1052,23 +1059,16 @@
       <charset val="177"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF993300"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1134,18 +1134,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1180,7 +1174,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
-        <bgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -1193,7 +1187,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1217,10 +1211,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1230,7 +1221,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1238,15 +1229,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1254,7 +1245,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1262,35 +1253,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1298,19 +1289,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1322,31 +1313,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1358,11 +1349,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1374,15 +1365,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1390,23 +1381,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="174" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1414,28 +1405,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Neutral 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1474,7 +1464,7 @@
       <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -1507,7 +1497,7 @@
   </sheetPr>
   <dimension ref="A1:U159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -28493,8 +28483,8 @@
   </sheetPr>
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28519,32 +28509,32 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>30.6308</v>
+        <v>12.14218</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>35.3366470328258</v>
+        <v>12.4767457277532</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>41.8242949342022</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12.3179135179041</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>12.14218</v>
+        <v>30.6308</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>12.4767457277532</v>
+        <v>35.3366470328258</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>12.3179135179041</v>
+        <v>41.8242949342022</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
